--- a/Chapter 4/Table S6.xlsx
+++ b/Chapter 4/Table S6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\266se\Documents\GitHub\thesis_supplementary\Chapter 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F64B7F8-9BA4-418C-9D00-83E6340B8105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E402E3A4-51BB-4D3F-B1EC-F8B1957A4D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="-13068" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peddy Output" sheetId="1" r:id="rId1"/>
@@ -1046,9 +1046,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="8.7890625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7890625" customWidth="1"/>
-    <col min="4" max="18" width="9.578125" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.9453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
